--- a/output/StructureDefinition-Organization.xlsx
+++ b/output/StructureDefinition-Organization.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$27</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="232">
   <si>
     <t>Path</t>
   </si>
@@ -146,20 +146,20 @@
     <t>*</t>
   </si>
   <si>
-    <t>A resource with narrative, extensions, and contained resources</t>
-  </si>
-  <si>
-    <t>A resource that includes narrative, extensions, and contained resources.</t>
-  </si>
-  <si>
-    <t>DomainResource</t>
+    <t>A grouping of people or organizations with a common purpose</t>
+  </si>
+  <si>
+    <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
-    <t>Entity. Role, or Act</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
+  </si>
+  <si>
+    <t>(also see master files messages)</t>
+  </si>
+  <si>
+    <t>Organization(classCode=ORG, determinerCode=INST)</t>
   </si>
   <si>
     <t>Organization.id</t>
@@ -326,16 +326,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -389,6 +379,372 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Organization.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Whether the organization's record is still in active use</t>
+  </si>
+  <si>
+    <t>Whether the organization's record is still in active use.</t>
+  </si>
+  <si>
+    <t>This active flag is not intended to be used to mark an organization as temporarily closed or under construction. Instead the Location(s) within the Organization should have the suspended status. If further details of the reason for the suspension are required, then an extension on this element should be used.
+This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
+  </si>
+  <si>
+    <t>Need a flag to indicate a record is no longer to be used and should generally be hidden for the user in the UI.</t>
+  </si>
+  <si>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>No equivalent in HL7 v2</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
+    <t>./Status (however this concept in ServD more covers why the organization is active or not, could be delisted, deregistered, not operational yet) this could alternatively be derived from ./StartDate and ./EndDate and given a context date.</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Organization.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Kind of organization</t>
+  </si>
+  <si>
+    <t>The kind(s) of organization that this is.</t>
+  </si>
+  <si>
+    <t>Organizations can be corporations, wards, sections, clinical teams, government departments, etc. Note that code is generally a classifier of the type of organization; in many applications, codes are used to identity a particular organization (say, ward) as opposed to another of the same type - these are identifiers, not codes
+When considering if multiple types are appropriate, you should evaluate if child organizations would be a more appropriate use of the concept, as different types likely are in different sub-areas of the organization. This is most likely to be used where type values have orthogonal values, such as a religious, academic and medical center.
+We expect that some jurisdictions will profile this optionality to be a single cardinality.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Used to categorize the organization.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/organization-type</t>
+  </si>
+  <si>
+    <t>No equivalent in v2</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Organization.name</t>
+  </si>
+  <si>
+    <t>Name used for the organization</t>
+  </si>
+  <si>
+    <t>A name associated with the organization.</t>
+  </si>
+  <si>
+    <t>If the name of an organization changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
+  </si>
+  <si>
+    <t>Need to use the name as the label of the organization.</t>
+  </si>
+  <si>
+    <t>XON.1</t>
+  </si>
+  <si>
+    <t>.name</t>
+  </si>
+  <si>
+    <t>.PreferredName/Name</t>
+  </si>
+  <si>
+    <t>Organization.alias</t>
+  </si>
+  <si>
+    <t>A list of alternate names that the organization is known as, or was known as in the past</t>
+  </si>
+  <si>
+    <t>A list of alternate names that the organization is known as, or was known as in the past.</t>
+  </si>
+  <si>
+    <t>There are no dates associated with the alias/historic names, as this is not intended to track when names were used, but to assist in searching so that older names can still result in identifying the organization.</t>
+  </si>
+  <si>
+    <t>Over time locations and organizations go through many changes and can be known by different names.
+For searching knowing previous names that the organization was known by can be very useful.</t>
+  </si>
+  <si>
+    <t>Organization.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
+</t>
+  </si>
+  <si>
+    <t>A contact detail for the organization</t>
+  </si>
+  <si>
+    <t>A contact detail for the organization.</t>
+  </si>
+  <si>
+    <t>The use code 'home' is not to be used. Note that these contacts are not the contact details of people who are employed by or represent the organization, but official contacts for the organization itself.</t>
+  </si>
+  <si>
+    <t>Human contact for the organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org-3
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+  </si>
+  <si>
+    <t>ORC-22?</t>
+  </si>
+  <si>
+    <t>.telecom</t>
+  </si>
+  <si>
+    <t>./ContactPoints</t>
+  </si>
+  <si>
+    <t>Organization.address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address
+</t>
+  </si>
+  <si>
+    <t>An address for the organization</t>
+  </si>
+  <si>
+    <t>An address for the organization.</t>
+  </si>
+  <si>
+    <t>Organization may have multiple addresses with different uses or applicable periods. The use code 'home' is not to be used.</t>
+  </si>
+  <si>
+    <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org-2
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+  </si>
+  <si>
+    <t>ORC-23?</t>
+  </si>
+  <si>
+    <t>.address</t>
+  </si>
+  <si>
+    <t>./PrimaryAddress and ./OtherAddresses</t>
+  </si>
+  <si>
+    <t>Organization.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>The organization of which this organization forms a part</t>
+  </si>
+  <si>
+    <t>The organization of which this organization forms a part.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the hierarchy of organizations within an organization.</t>
+  </si>
+  <si>
+    <t>.playedBy[classCode=Part].scoper</t>
+  </si>
+  <si>
+    <t>Organization.contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Contact for the organization for a certain purpose</t>
+  </si>
+  <si>
+    <t>Contact for the organization for a certain purpose.</t>
+  </si>
+  <si>
+    <t>Where multiple contacts for the same purpose are provided there is a standard extension that can be used to determine which one is the preferred contact to use.</t>
+  </si>
+  <si>
+    <t>Need to keep track of assigned contact points within bigger organization.</t>
+  </si>
+  <si>
+    <t>.contactParty</t>
+  </si>
+  <si>
+    <t>Organization.contact.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Organization.contact.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Organization.contact.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Organization.contact.purpose</t>
+  </si>
+  <si>
+    <t>The type of contact</t>
+  </si>
+  <si>
+    <t>Indicates a purpose for which the contact can be reached.</t>
+  </si>
+  <si>
+    <t>Need to distinguish between multiple contact persons.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>The purpose for which you would contact a contact party.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+  </si>
+  <si>
+    <t>./type</t>
+  </si>
+  <si>
+    <t>Organization.contact.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HumanName
+</t>
+  </si>
+  <si>
+    <t>A name associated with the contact</t>
+  </si>
+  <si>
+    <t>A name associated with the contact.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the person by name.</t>
+  </si>
+  <si>
+    <t>PID-5, PID-9</t>
+  </si>
+  <si>
+    <t>./name</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom</t>
+  </si>
+  <si>
+    <t>Contact details (telephone, email, etc.)  for a contact</t>
+  </si>
+  <si>
+    <t>A contact detail (e.g. a telephone number or an email address) by which the party may be contacted.</t>
+  </si>
+  <si>
+    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
+  </si>
+  <si>
+    <t>PID-13, PID-14</t>
+  </si>
+  <si>
+    <t>./telecom</t>
+  </si>
+  <si>
+    <t>Organization.contact.address</t>
+  </si>
+  <si>
+    <t>Visiting or postal addresses for the contact</t>
+  </si>
+  <si>
+    <t>Visiting or postal addresses for the contact.</t>
+  </si>
+  <si>
+    <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
+  </si>
+  <si>
+    <t>PID-11</t>
+  </si>
+  <si>
+    <t>./addr</t>
+  </si>
+  <si>
+    <t>Organization.endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Endpoint)
+</t>
+  </si>
+  <si>
+    <t>Technical endpoints providing access to services operated for the organization</t>
+  </si>
+  <si>
+    <t>Technical endpoints providing access to services operated for the organization.</t>
+  </si>
+  <si>
+    <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
   </si>
 </sst>
 </file>
@@ -537,7 +893,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM11"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -546,7 +902,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.3515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.45703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
@@ -556,7 +912,7 @@
     <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="57.140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.1796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -569,21 +925,21 @@
     <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="36.27734375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="52.3515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.62890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="25.74609375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="29.73828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="15.8515625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.65625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="49.0625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="210.3203125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -788,7 +1144,7 @@
         <v>40</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>41</v>
@@ -800,16 +1156,16 @@
         <v>40</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>47</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>40</v>
@@ -1551,19 +1907,19 @@
         <v>40</v>
       </c>
       <c r="AA9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -1575,7 +1931,7 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>40</v>
@@ -1592,7 +1948,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1618,16 +1974,16 @@
         <v>95</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M10" t="s" s="2">
         <v>98</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>40</v>
@@ -1664,19 +2020,19 @@
         <v>40</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AC10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -1688,7 +2044,7 @@
         <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>40</v>
@@ -1705,7 +2061,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1728,17 +2084,17 @@
         <v>50</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>40</v>
@@ -1787,35 +2143,1827 @@
         <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AH11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AI11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AK11" t="s" s="2">
+    </row>
+    <row r="12" hidden="true">
+      <c r="A12" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="K12" t="s" s="2">
         <v>118</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" hidden="true">
+      <c r="A14" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" hidden="true">
+      <c r="A15" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
+      <c r="A16" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" hidden="true">
+      <c r="A17" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM11">
+  <autoFilter ref="A1:AM27">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1825,7 +3973,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI10">
+  <conditionalFormatting sqref="A2:AI26">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-Organization.xlsx
+++ b/output/StructureDefinition-Organization.xlsx
@@ -902,45 +902,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.45703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.6171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.1796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.8515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="52.3515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.62890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="52.69140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.53515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.65625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="49.0625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="210.3203125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.51171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="48.6640625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="211.14453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
